--- a/Momenten_summen.xlsx
+++ b/Momenten_summen.xlsx
@@ -460,13 +460,13 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>48251.9442578734</v>
+        <v>44009.86416865962</v>
       </c>
       <c r="C2" t="n">
-        <v>1022701.381047633</v>
+        <v>980280.5801554957</v>
       </c>
       <c r="D2" t="n">
-        <v>14795.68979785533</v>
+        <v>23279.8499762829</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -477,13 +477,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="n">
-        <v>48251.9442578734</v>
+        <v>44009.86416865962</v>
       </c>
       <c r="C3" t="n">
-        <v>1022701.381047633</v>
+        <v>980280.5801554957</v>
       </c>
       <c r="D3" t="n">
-        <v>14795.68979785533</v>
+        <v>23279.8499762829</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -494,13 +494,13 @@
         <v>30</v>
       </c>
       <c r="B4" t="n">
-        <v>48251.9442578734</v>
+        <v>44009.86416865962</v>
       </c>
       <c r="C4" t="n">
-        <v>1022701.381047633</v>
+        <v>980280.5801554957</v>
       </c>
       <c r="D4" t="n">
-        <v>14795.68979785533</v>
+        <v>23279.8499762829</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -511,13 +511,13 @@
         <v>40</v>
       </c>
       <c r="B5" t="n">
-        <v>48251.9442578734</v>
+        <v>44009.86416865962</v>
       </c>
       <c r="C5" t="n">
-        <v>1022701.381047633</v>
+        <v>980280.5801554957</v>
       </c>
       <c r="D5" t="n">
-        <v>14795.68979785533</v>
+        <v>23279.8499762829</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>

--- a/Momenten_summen.xlsx
+++ b/Momenten_summen.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summen" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Summen" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,22 +454,38 @@
           <t>Momente_y</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Center_X</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Center_Z</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>44009.86416865962</v>
+        <v>85979.89872084881</v>
       </c>
       <c r="C2" t="n">
-        <v>980280.5801554957</v>
+        <v>2629653.239222029</v>
       </c>
       <c r="D2" t="n">
-        <v>23279.8499762829</v>
+        <v>57615.16669750272</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>30.58451194225911</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.6701004252698883</v>
       </c>
     </row>
     <row r="3">
@@ -477,16 +493,22 @@
         <v>20</v>
       </c>
       <c r="B3" t="n">
-        <v>44009.86416865962</v>
+        <v>85979.89872084881</v>
       </c>
       <c r="C3" t="n">
-        <v>980280.5801554957</v>
+        <v>2629653.239222029</v>
       </c>
       <c r="D3" t="n">
-        <v>23279.8499762829</v>
+        <v>57615.16669750272</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>30.58451194225911</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.6701004252698883</v>
       </c>
     </row>
     <row r="4">
@@ -494,16 +516,22 @@
         <v>30</v>
       </c>
       <c r="B4" t="n">
-        <v>44009.86416865962</v>
+        <v>85979.89872084881</v>
       </c>
       <c r="C4" t="n">
-        <v>980280.5801554957</v>
+        <v>2629653.239222029</v>
       </c>
       <c r="D4" t="n">
-        <v>23279.8499762829</v>
+        <v>57615.16669750272</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>30.58451194225911</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.6701004252698883</v>
       </c>
     </row>
     <row r="5">
@@ -511,16 +539,68 @@
         <v>40</v>
       </c>
       <c r="B5" t="n">
-        <v>44009.86416865962</v>
+        <v>85979.89872084881</v>
       </c>
       <c r="C5" t="n">
-        <v>980280.5801554957</v>
+        <v>2629653.239222029</v>
       </c>
       <c r="D5" t="n">
-        <v>23279.8499762829</v>
+        <v>57615.16669750272</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>30.58451194225911</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.6701004252698883</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B6" t="n">
+        <v>85979.89872084881</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2629653.239222029</v>
+      </c>
+      <c r="D6" t="n">
+        <v>57615.16669750272</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>30.58451194225911</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.6701004252698883</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B7" t="n">
+        <v>85979.89872084881</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2629653.239222029</v>
+      </c>
+      <c r="D7" t="n">
+        <v>57615.16669750272</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>30.58451194225911</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.6701004252698883</v>
       </c>
     </row>
   </sheetData>

--- a/Momenten_summen.xlsx
+++ b/Momenten_summen.xlsx
@@ -473,7 +473,7 @@
         <v>85979.89872084881</v>
       </c>
       <c r="C2" t="n">
-        <v>2629653.239222029</v>
+        <v>2524081.04254835</v>
       </c>
       <c r="D2" t="n">
         <v>57615.16669750272</v>
@@ -482,7 +482,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>30.58451194225911</v>
+        <v>29.35664126266641</v>
       </c>
       <c r="G2" t="n">
         <v>0.6701004252698883</v>
@@ -496,7 +496,7 @@
         <v>85979.89872084881</v>
       </c>
       <c r="C3" t="n">
-        <v>2629653.239222029</v>
+        <v>2524081.04254835</v>
       </c>
       <c r="D3" t="n">
         <v>57615.16669750272</v>
@@ -505,7 +505,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>30.58451194225911</v>
+        <v>29.35664126266641</v>
       </c>
       <c r="G3" t="n">
         <v>0.6701004252698883</v>
@@ -519,7 +519,7 @@
         <v>85979.89872084881</v>
       </c>
       <c r="C4" t="n">
-        <v>2629653.239222029</v>
+        <v>2524081.04254835</v>
       </c>
       <c r="D4" t="n">
         <v>57615.16669750272</v>
@@ -528,7 +528,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>30.58451194225911</v>
+        <v>29.35664126266641</v>
       </c>
       <c r="G4" t="n">
         <v>0.6701004252698883</v>
@@ -542,7 +542,7 @@
         <v>85979.89872084881</v>
       </c>
       <c r="C5" t="n">
-        <v>2629653.239222029</v>
+        <v>2524081.04254835</v>
       </c>
       <c r="D5" t="n">
         <v>57615.16669750272</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>30.58451194225911</v>
+        <v>29.35664126266641</v>
       </c>
       <c r="G5" t="n">
         <v>0.6701004252698883</v>
@@ -565,7 +565,7 @@
         <v>85979.89872084881</v>
       </c>
       <c r="C6" t="n">
-        <v>2629653.239222029</v>
+        <v>2524081.04254835</v>
       </c>
       <c r="D6" t="n">
         <v>57615.16669750272</v>
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>30.58451194225911</v>
+        <v>29.35664126266641</v>
       </c>
       <c r="G6" t="n">
         <v>0.6701004252698883</v>
@@ -588,7 +588,7 @@
         <v>85979.89872084881</v>
       </c>
       <c r="C7" t="n">
-        <v>2629653.239222029</v>
+        <v>2524081.04254835</v>
       </c>
       <c r="D7" t="n">
         <v>57615.16669750272</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>30.58451194225911</v>
+        <v>29.35664126266641</v>
       </c>
       <c r="G7" t="n">
         <v>0.6701004252698883</v>

--- a/Momenten_summen.xlsx
+++ b/Momenten_summen.xlsx
@@ -470,22 +470,22 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>85979.89872084881</v>
+        <v>89002.44919865768</v>
       </c>
       <c r="C2" t="n">
-        <v>2524081.04254835</v>
+        <v>2631044.797829971</v>
       </c>
       <c r="D2" t="n">
-        <v>57615.16669750272</v>
+        <v>54242.52146669442</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>29.35664126266641</v>
+        <v>29.56148759409255</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6701004252698883</v>
+        <v>0.6094497618332114</v>
       </c>
     </row>
     <row r="3">
@@ -493,22 +493,22 @@
         <v>20</v>
       </c>
       <c r="B3" t="n">
-        <v>85979.89872084881</v>
+        <v>89002.44919865768</v>
       </c>
       <c r="C3" t="n">
-        <v>2524081.04254835</v>
+        <v>2631044.797829971</v>
       </c>
       <c r="D3" t="n">
-        <v>57615.16669750272</v>
+        <v>54242.52146669442</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>29.35664126266641</v>
+        <v>29.56148759409255</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6701004252698883</v>
+        <v>0.6094497618332114</v>
       </c>
     </row>
     <row r="4">
@@ -516,22 +516,22 @@
         <v>30</v>
       </c>
       <c r="B4" t="n">
-        <v>85979.89872084881</v>
+        <v>89002.44919865768</v>
       </c>
       <c r="C4" t="n">
-        <v>2524081.04254835</v>
+        <v>2631044.797829971</v>
       </c>
       <c r="D4" t="n">
-        <v>57615.16669750272</v>
+        <v>54242.52146669442</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>29.35664126266641</v>
+        <v>29.56148759409255</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6701004252698883</v>
+        <v>0.6094497618332114</v>
       </c>
     </row>
     <row r="5">
@@ -539,22 +539,22 @@
         <v>40</v>
       </c>
       <c r="B5" t="n">
-        <v>85979.89872084881</v>
+        <v>89002.44919865768</v>
       </c>
       <c r="C5" t="n">
-        <v>2524081.04254835</v>
+        <v>2631044.797829971</v>
       </c>
       <c r="D5" t="n">
-        <v>57615.16669750272</v>
+        <v>54242.52146669442</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>29.35664126266641</v>
+        <v>29.56148759409255</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6701004252698883</v>
+        <v>0.6094497618332114</v>
       </c>
     </row>
     <row r="6">
@@ -562,22 +562,22 @@
         <v>50</v>
       </c>
       <c r="B6" t="n">
-        <v>85979.89872084881</v>
+        <v>89002.44919865768</v>
       </c>
       <c r="C6" t="n">
-        <v>2524081.04254835</v>
+        <v>2631044.797829971</v>
       </c>
       <c r="D6" t="n">
-        <v>57615.16669750272</v>
+        <v>54242.52146669442</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>29.35664126266641</v>
+        <v>29.56148759409255</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6701004252698883</v>
+        <v>0.6094497618332114</v>
       </c>
     </row>
     <row r="7">
@@ -585,22 +585,22 @@
         <v>60</v>
       </c>
       <c r="B7" t="n">
-        <v>85979.89872084881</v>
+        <v>89002.44919865768</v>
       </c>
       <c r="C7" t="n">
-        <v>2524081.04254835</v>
+        <v>2631044.797829971</v>
       </c>
       <c r="D7" t="n">
-        <v>57615.16669750272</v>
+        <v>54242.52146669442</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>29.35664126266641</v>
+        <v>29.56148759409255</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6701004252698883</v>
+        <v>0.6094497618332114</v>
       </c>
     </row>
   </sheetData>

--- a/Momenten_summen.xlsx
+++ b/Momenten_summen.xlsx
@@ -470,22 +470,22 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>89002.44919865768</v>
+        <v>86580.90567631679</v>
       </c>
       <c r="C2" t="n">
-        <v>2631044.797829971</v>
+        <v>2558657.597316636</v>
       </c>
       <c r="D2" t="n">
-        <v>54242.52146669442</v>
+        <v>61022.8433292489</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>29.56148759409255</v>
+        <v>29.55221566845456</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6094497618332114</v>
+        <v>0.7048071725812519</v>
       </c>
     </row>
     <row r="3">
@@ -493,22 +493,22 @@
         <v>20</v>
       </c>
       <c r="B3" t="n">
-        <v>89002.44919865768</v>
+        <v>86580.90567631679</v>
       </c>
       <c r="C3" t="n">
-        <v>2631044.797829971</v>
+        <v>2558657.597316636</v>
       </c>
       <c r="D3" t="n">
-        <v>54242.52146669442</v>
+        <v>61022.8433292489</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>29.56148759409255</v>
+        <v>29.55221566845456</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6094497618332114</v>
+        <v>0.7048071725812519</v>
       </c>
     </row>
     <row r="4">
@@ -516,22 +516,22 @@
         <v>30</v>
       </c>
       <c r="B4" t="n">
-        <v>89002.44919865768</v>
+        <v>86580.90567631679</v>
       </c>
       <c r="C4" t="n">
-        <v>2631044.797829971</v>
+        <v>2558657.597316636</v>
       </c>
       <c r="D4" t="n">
-        <v>54242.52146669442</v>
+        <v>61022.8433292489</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>29.56148759409255</v>
+        <v>29.55221566845456</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6094497618332114</v>
+        <v>0.7048071725812519</v>
       </c>
     </row>
     <row r="5">
@@ -539,22 +539,22 @@
         <v>40</v>
       </c>
       <c r="B5" t="n">
-        <v>89002.44919865768</v>
+        <v>86580.90567631679</v>
       </c>
       <c r="C5" t="n">
-        <v>2631044.797829971</v>
+        <v>2558657.597316636</v>
       </c>
       <c r="D5" t="n">
-        <v>54242.52146669442</v>
+        <v>61022.8433292489</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>29.56148759409255</v>
+        <v>29.55221566845456</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6094497618332114</v>
+        <v>0.7048071725812519</v>
       </c>
     </row>
     <row r="6">
@@ -562,22 +562,22 @@
         <v>50</v>
       </c>
       <c r="B6" t="n">
-        <v>89002.44919865768</v>
+        <v>86580.90567631679</v>
       </c>
       <c r="C6" t="n">
-        <v>2631044.797829971</v>
+        <v>2558657.597316636</v>
       </c>
       <c r="D6" t="n">
-        <v>54242.52146669442</v>
+        <v>61022.8433292489</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>29.56148759409255</v>
+        <v>29.55221566845456</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6094497618332114</v>
+        <v>0.7048071725812519</v>
       </c>
     </row>
     <row r="7">
@@ -585,22 +585,22 @@
         <v>60</v>
       </c>
       <c r="B7" t="n">
-        <v>89002.44919865768</v>
+        <v>86580.90567631679</v>
       </c>
       <c r="C7" t="n">
-        <v>2631044.797829971</v>
+        <v>2558657.597316636</v>
       </c>
       <c r="D7" t="n">
-        <v>54242.52146669442</v>
+        <v>61022.8433292489</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>29.56148759409255</v>
+        <v>29.55221566845456</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6094497618332114</v>
+        <v>0.7048071725812519</v>
       </c>
     </row>
   </sheetData>

--- a/Momenten_summen.xlsx
+++ b/Momenten_summen.xlsx
@@ -470,22 +470,22 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>86580.90567631679</v>
+        <v>78831.85120227362</v>
       </c>
       <c r="C2" t="n">
-        <v>2558657.597316636</v>
+        <v>2376036.563503126</v>
       </c>
       <c r="D2" t="n">
-        <v>61022.8433292489</v>
+        <v>14475.41758372884</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>29.55221566845456</v>
+        <v>30.14056535861988</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7048071725812519</v>
+        <v>0.1836239713131504</v>
       </c>
     </row>
     <row r="3">
@@ -493,22 +493,22 @@
         <v>20</v>
       </c>
       <c r="B3" t="n">
-        <v>86580.90567631679</v>
+        <v>78831.85120227362</v>
       </c>
       <c r="C3" t="n">
-        <v>2558657.597316636</v>
+        <v>2376036.563503126</v>
       </c>
       <c r="D3" t="n">
-        <v>61022.8433292489</v>
+        <v>14475.41758372884</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>29.55221566845456</v>
+        <v>30.14056535861988</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7048071725812519</v>
+        <v>0.1836239713131504</v>
       </c>
     </row>
     <row r="4">
@@ -516,22 +516,22 @@
         <v>30</v>
       </c>
       <c r="B4" t="n">
-        <v>86580.90567631679</v>
+        <v>78831.85120227362</v>
       </c>
       <c r="C4" t="n">
-        <v>2558657.597316636</v>
+        <v>2376036.563503126</v>
       </c>
       <c r="D4" t="n">
-        <v>61022.8433292489</v>
+        <v>14475.41758372884</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>29.55221566845456</v>
+        <v>30.14056535861988</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7048071725812519</v>
+        <v>0.1836239713131504</v>
       </c>
     </row>
     <row r="5">
@@ -539,22 +539,22 @@
         <v>40</v>
       </c>
       <c r="B5" t="n">
-        <v>86580.90567631679</v>
+        <v>78831.85120227362</v>
       </c>
       <c r="C5" t="n">
-        <v>2558657.597316636</v>
+        <v>2376036.563503126</v>
       </c>
       <c r="D5" t="n">
-        <v>61022.8433292489</v>
+        <v>14475.41758372884</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>29.55221566845456</v>
+        <v>30.14056535861988</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7048071725812519</v>
+        <v>0.1836239713131504</v>
       </c>
     </row>
     <row r="6">
@@ -562,22 +562,22 @@
         <v>50</v>
       </c>
       <c r="B6" t="n">
-        <v>86580.90567631679</v>
+        <v>78831.85120227362</v>
       </c>
       <c r="C6" t="n">
-        <v>2558657.597316636</v>
+        <v>2376036.563503126</v>
       </c>
       <c r="D6" t="n">
-        <v>61022.8433292489</v>
+        <v>14475.41758372884</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>29.55221566845456</v>
+        <v>30.14056535861988</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7048071725812519</v>
+        <v>0.1836239713131504</v>
       </c>
     </row>
     <row r="7">
@@ -585,22 +585,22 @@
         <v>60</v>
       </c>
       <c r="B7" t="n">
-        <v>86580.90567631679</v>
+        <v>78831.85120227362</v>
       </c>
       <c r="C7" t="n">
-        <v>2558657.597316636</v>
+        <v>2376036.563503126</v>
       </c>
       <c r="D7" t="n">
-        <v>61022.8433292489</v>
+        <v>14475.41758372884</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>29.55221566845456</v>
+        <v>30.14056535861988</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7048071725812519</v>
+        <v>0.1836239713131504</v>
       </c>
     </row>
   </sheetData>
